--- a/biology/Botanique/Disa_draconis/Disa_draconis.xlsx
+++ b/biology/Botanique/Disa_draconis/Disa_draconis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Disa draconis est une espèce de la famille des Orchidaceae. Elle est présente en Afrique du Sud dans la Province Cap.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Géophyte tubéreux[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Géophyte tubéreux
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 mai 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 mai 2024) :
 Disa draconis var. draconis
 Disa draconis var. harveiana (Lindl.) Schltr.</t>
         </is>
@@ -575,11 +591,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Disa draconis (L.f.) Sw.[2].
-L'espèce a été initialement classée dans le genre Orchis sous le basionyme Orchis draconis L.f.[2].
-Disa draconis a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Disa draconis (L.f.) Sw..
+L'espèce a été initialement classée dans le genre Orchis sous le basionyme Orchis draconis L.f..
+Disa draconis a pour synonymes :
 Orchis draconis L.f.
 Satyrium draconis (L.f.) Thunb.</t>
         </is>
